--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1251150.987297402</v>
+        <v>1298605.766174998</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553706</v>
+        <v>698313.683076072</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7046384.763200769</v>
+        <v>7646137.796885855</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>199.7259729097946</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>28.66548829251599</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>83.36754230462164</v>
+        <v>123.0673923170407</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -896,7 +898,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>334.2553197328295</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>173.093714505602</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.94864015846673</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1117,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>177.2371487216782</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1148,10 +1150,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>97.64079345678151</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>147.7517831290958</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>151.5440623940404</v>
+        <v>221.465566047739</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1531,10 +1533,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.58543740429432</v>
       </c>
       <c r="E13" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1622,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>29.89949249262446</v>
       </c>
       <c r="T14" t="n">
-        <v>162.4232175315078</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1771,7 +1773,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>80.03524407686641</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>108.3150987014997</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>58.31517967031836</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>103.8121020651556</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2716,10 +2718,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>62.28387885204305</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2728,7 +2730,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2773,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>203.953684887366</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>55.42473440164044</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3196,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3424,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>135.3372341396832</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>141.0788638521124</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>182.2866155180619</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3749,16 +3751,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>230.2680303445598</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>110.744284008883</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028904</v>
       </c>
       <c r="X43" t="n">
-        <v>160.9061021023308</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3977,22 +3979,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>161.3883604999901</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4034,7 +4036,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880823</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4195,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.2846230762509</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>726.4117271901548</v>
+        <v>562.9251824419335</v>
       </c>
       <c r="C2" t="n">
-        <v>299.5109972034549</v>
+        <v>136.0244524552336</v>
       </c>
       <c r="D2" t="n">
-        <v>97.76759022386436</v>
+        <v>116.772235680638</v>
       </c>
       <c r="E2" t="n">
-        <v>75.83105441212597</v>
+        <v>94.83569986889961</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74727664193027</v>
+        <v>73.75192209870391</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>73.45326372855661</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>73.45326372855661</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>244.9404807450223</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>918.7421318583365</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L2" t="n">
-        <v>918.7421318583365</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M2" t="n">
-        <v>918.7421318583365</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N2" t="n">
-        <v>918.7421318583365</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.543782971651</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P2" t="n">
-        <v>2266.345434084965</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2618.063619462288</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U2" t="n">
-        <v>2359.7087100587</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2359.7087100587</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>1963.317360359047</v>
+        <v>991.7500075300179</v>
       </c>
       <c r="X2" t="n">
-        <v>1551.597361526795</v>
+        <v>580.0300086977652</v>
       </c>
       <c r="Y2" t="n">
-        <v>1146.260091481685</v>
+        <v>578.7331426930596</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1480.866774040094</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>1363.360870557599</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>1259.520912072884</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>1154.818978345821</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>1061.173148028725</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>967.1193762463289</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>913.7432830086385</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>921.1899259705503</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>921.1899259705503</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>921.1899259705503</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>921.1899259705503</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M3" t="n">
-        <v>921.1899259705503</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N3" t="n">
-        <v>921.1899259705503</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O3" t="n">
-        <v>1594.991577083865</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>2268.793228197179</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>2640.411603504445</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2722.430913589148</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2641.106666150403</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2499.226730448081</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>2314.458534367718</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>2109.485395506984</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1912.964018340201</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1749.486672106864</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1609.793783460156</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>448.662731302312</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="C4" t="n">
-        <v>364.453092610775</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D4" t="n">
-        <v>364.453092610775</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E4" t="n">
-        <v>198.2448867636286</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F4" t="n">
-        <v>198.2448867636286</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G4" t="n">
-        <v>198.2448867636286</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
-        <v>54.44861827178296</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2187.823032372085</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>1944.483684597984</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>1664.299236098289</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>1382.587768706318</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W4" t="n">
-        <v>1107.735364878831</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X4" t="n">
-        <v>865.1714683246356</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y4" t="n">
-        <v>638.8287000143777</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1756.041749106372</v>
+        <v>2095.759537287837</v>
       </c>
       <c r="C5" t="n">
-        <v>1733.181423160076</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.888802345077</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>883.9118624929341</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>458.7876806823343</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>701.0259602492056</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1374.82761136252</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>2048.629262475834</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
-        <v>2722.430913589148</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2443.221483598044</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.866574194456</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.866574194456</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.866574194456</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>2177.186979402608</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y5" t="n">
-        <v>1771.849709357498</v>
+        <v>2111.567497538963</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>644.9335448401225</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>644.9335448401225</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>644.9335448401225</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>644.9335448401225</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>1318.735195953437</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1398.990771989513</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>811.4695414625687</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>811.4695414625687</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D7" t="n">
-        <v>648.1527685893394</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E7" t="n">
-        <v>481.9445627421929</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0827885167533</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2064.726598204046</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2064.726598204046</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1784.542149704351</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1502.830682312379</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1227.978278484892</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1227.978278484892</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1001.635510174634</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1790.938620362901</v>
+        <v>2200.126831414696</v>
       </c>
       <c r="C8" t="n">
-        <v>1768.078294416605</v>
+        <v>2021.099408463506</v>
       </c>
       <c r="D8" t="n">
-        <v>1344.785673601605</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E8" t="n">
-        <v>918.8087337494629</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F8" t="n">
-        <v>493.6845519388631</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>89.34548952831176</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>728.2502693850971</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>728.2502693850971</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1374.82761136252</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>2048.629262475834</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2623.803849491389</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2623.803849491389</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2623.803849491389</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2623.803849491389</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>2616.12425469954</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>2210.786984654431</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>326.146107551374</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>916.6310341197136</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>1189.334597738979</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>1189.334597738979</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.136248852293</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>779.722855959192</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>779.722855959192</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>630.4786305762669</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>464.2704247291205</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.164188617424</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.452721225452</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1212.452721225452</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>969.8888246712576</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>969.8888246712576</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.525280420256</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C11" t="n">
-        <v>1058.624550433556</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D11" t="n">
-        <v>1058.624550433556</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E11" t="n">
-        <v>632.6476105814135</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F11" t="n">
-        <v>207.5234287708137</v>
+        <v>728.1185992569547</v>
       </c>
       <c r="G11" t="n">
-        <v>207.5234287708137</v>
+        <v>323.7795368464033</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>415.4757434162575</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>1130.984051391757</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>2060.609099011033</v>
       </c>
       <c r="M11" t="n">
-        <v>1402.051920498411</v>
+        <v>3064.895200430092</v>
       </c>
       <c r="N11" t="n">
-        <v>2075.853571611725</v>
+        <v>4041.146258916793</v>
       </c>
       <c r="O11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X11" t="n">
-        <v>2310.710914756895</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y11" t="n">
-        <v>1905.373644711786</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>728.2502693850971</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.334597738979</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>278.5276838214469</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="C13" t="n">
-        <v>106.5551207003629</v>
+        <v>152.1834473075703</v>
       </c>
       <c r="D13" t="n">
-        <v>106.5551207003629</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1733.181423160076</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C14" t="n">
-        <v>1733.181423160076</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D14" t="n">
-        <v>1309.888802345077</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>883.9118624929341</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>802.2843858155068</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>180.7360323734235</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>896.2443403489226</v>
       </c>
       <c r="L14" t="n">
-        <v>701.0259602492056</v>
+        <v>896.2443403489226</v>
       </c>
       <c r="M14" t="n">
-        <v>1374.82761136252</v>
+        <v>1900.530441767981</v>
       </c>
       <c r="N14" t="n">
-        <v>2048.629262475834</v>
+        <v>2876.781500254682</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>3721.926150405494</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>4430.205429563422</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T14" t="n">
-        <v>2558.367057496716</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U14" t="n">
-        <v>2558.367057496716</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V14" t="n">
-        <v>2558.367057496716</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W14" t="n">
-        <v>2558.367057496716</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X14" t="n">
-        <v>2558.367057496716</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y14" t="n">
-        <v>2153.029787451606</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>54.44861827178296</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N15" t="n">
-        <v>725.1891208761992</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.265215834597</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>880.292652713513</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>716.9758798402837</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S16" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="T16" t="n">
-        <v>1991.522297910811</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="U16" t="n">
-        <v>1711.337849411115</v>
+        <v>2124.042168371716</v>
       </c>
       <c r="V16" t="n">
-        <v>1711.337849411115</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="W16" t="n">
-        <v>1711.337849411115</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>1468.773952856921</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1242.431184546663</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,49 +5515,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>188.235025135897</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.654482149731</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3813.905540636432</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5601,16 +5603,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5698,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>2039.376393044857</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5750,31 +5752,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2720.098147267829</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N20" t="n">
-        <v>3696.34920575453</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5835,16 +5837,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2019.640305074347</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1744.78790124686</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -5990,34 +5992,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3896.932966279258</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>4733.731774362164</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4733.731774362164</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>4733.731774362164</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>373.4203922683193</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>373.4203922683193</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>373.4203922683193</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6242,19 +6244,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6315,7 +6317,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.4200707646526</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C28" t="n">
-        <v>810.4475076435685</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D28" t="n">
-        <v>647.1307347703392</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2235.67712750613</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1955.492679006434</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1673.781211614463</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.928807786976</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X28" t="n">
-        <v>1398.928807786976</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y28" t="n">
-        <v>1172.586039476718</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6464,34 +6466,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>4059.149132315382</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>5115.135670291427</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>496.5168264363576</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>324.5442633152736</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>324.5442633152736</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>324.5442633152736</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>324.5442633152736</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>158.2872936095058</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1430.441863840363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1155.589460012876</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>913.0255634586812</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>686.6827951484232</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1082.193820490624</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6783,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6886,22 +6888,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V34" t="n">
-        <v>2119.408873334071</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7023,7 +7025,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>843.1025083526774</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>843.1025083526774</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>843.1025083526774</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>676.894302505531</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>505.0325282800914</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>338.7755585743235</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.684777446425</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.832373618938</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1033.268477064743</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1033.268477064743</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
         <v>2113.800768076616</v>
@@ -7178,46 +7180,46 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7256,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1748.774177950213</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1019.275630082919</v>
+        <v>374.0438447866366</v>
       </c>
       <c r="C40" t="n">
-        <v>847.303066961835</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9862940886057</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
         <v>202.0712816655526</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2098.587846356268</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1818.403397856572</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1536.691930464601</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1261.839526637114</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1019.275630082919</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>1019.275630082919</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1563.212878970635</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1136.312148983935</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>713.0195281689353</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>287.0425883167928</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>1090.853728201993</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L41" t="n">
-        <v>1090.853728201993</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>1090.853728201993</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>1764.655379315307</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>1764.655379315307</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P41" t="n">
-        <v>2266.345434084965</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.430913589148</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>2364.941498715398</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>1968.550149015745</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>1968.550149015745</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1563.212878970635</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>515.5329466256644</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>515.5329466256644</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N42" t="n">
-        <v>515.5329466256644</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T43" t="n">
-        <v>1991.522297910811</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="U43" t="n">
-        <v>1991.522297910811</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="V43" t="n">
-        <v>1991.522297910811</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="W43" t="n">
-        <v>1716.669894083324</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>252.3640354878977</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>252.3640354878977</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>252.3640354878977</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>252.3640354878977</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>252.3640354878977</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>89.34548952831176</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>89.34548952831176</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K44" t="n">
-        <v>54.44861827178296</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>728.2502693850971</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1402.051920498411</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2075.853571611725</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>2604.874578707245</v>
+        <v>4547.761764445324</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>4547.761764445324</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T44" t="n">
-        <v>2501.505342633781</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.150433230194</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V44" t="n">
-        <v>1885.661018356443</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>1489.26966865679</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>1077.549669824537</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>672.2123997794278</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>3762.283104400453</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>3644.777200917958</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>3540.937242433243</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>3436.235308706181</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>3342.589478389085</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>3248.535706606689</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>3195.159613368999</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>3195.159613368999</v>
       </c>
       <c r="J45" t="n">
-        <v>326.146107551374</v>
+        <v>3195.159613368999</v>
       </c>
       <c r="K45" t="n">
-        <v>326.146107551374</v>
+        <v>3195.159613368999</v>
       </c>
       <c r="L45" t="n">
-        <v>326.146107551374</v>
+        <v>3195.159613368999</v>
       </c>
       <c r="M45" t="n">
-        <v>999.9477586646882</v>
+        <v>3914.532297476637</v>
       </c>
       <c r="N45" t="n">
-        <v>1673.749409778002</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="O45" t="n">
-        <v>1673.749409778002</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="P45" t="n">
-        <v>1673.749409778002</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>4922.522996510762</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>4780.64306080844</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>4595.874864728077</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>4390.901725867344</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>4194.380348700561</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>4030.903002467224</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>3891.210113820516</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>3047.513282086044</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>2875.54071896496</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>2880.925544760537</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>3107.453145966374</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>3462.142467260795</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>3853.328262231046</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>4230.819773107081</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>4586.247901786845</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>4876.847113708745</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>4956.80863063668</v>
       </c>
       <c r="S46" t="n">
-        <v>2064.726598204046</v>
+        <v>4786.673583155815</v>
       </c>
       <c r="T46" t="n">
-        <v>2064.726598204046</v>
+        <v>4543.334235381715</v>
       </c>
       <c r="U46" t="n">
-        <v>1784.542149704351</v>
+        <v>4263.14978688202</v>
       </c>
       <c r="V46" t="n">
-        <v>1502.830682312379</v>
+        <v>3981.438319490049</v>
       </c>
       <c r="W46" t="n">
-        <v>1502.830682312379</v>
+        <v>3706.585915662562</v>
       </c>
       <c r="X46" t="n">
-        <v>1502.830682312379</v>
+        <v>3464.022019108367</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>3237.679250798109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>221.8359821858284</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>450.7747902674471</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8070,16 +8072,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>703.7796181195092</v>
+        <v>463.2315577343865</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q3" t="n">
-        <v>398.1191345589442</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>691.4204686724437</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8292,13 +8294,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,13 +8309,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>463.2315577343861</v>
       </c>
       <c r="P6" t="n">
-        <v>102.8370796251082</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>690.3880490742669</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>297.9732317841942</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>348.0046044727252</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>571.7556129878624</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8772,16 +8774,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>487.0847740255431</v>
+        <v>949.8342934347921</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>110.8937852375394</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>691.4204686724437</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>698.8586874099217</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9249,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>313.2411601358238</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1019.918210644103</v>
+        <v>1043.074428213577</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9647,7 +9649,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314398</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9656,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,19 +9719,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>408.4283502568313</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9963,10 +9965,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10112,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10194,13 +10196,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>782.8192206581323</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>227.574314522856</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>848.7638096822445</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10826,7 +10828,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10835,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622212</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10911,10 +10913,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3499534169981</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>544.332992890694</v>
+        <v>474.9037794053526</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11142,19 +11144,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685298</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>571.7556129878624</v>
+        <v>501.4423181933</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,10 +11384,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.0468757377568</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>143.3456323466651</v>
+        <v>73.42412869296655</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402027</v>
       </c>
       <c r="E13" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296653</v>
       </c>
       <c r="T14" t="n">
-        <v>56.29309771430536</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>84.51087971180857</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>169.067505313199</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>106.2309441183566</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>66.33105441802955</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>102.2622449366319</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>68.15019490184613</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>86.93357140528671</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>7.021071667243973</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>47.18544517283263</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>58.61933877829711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>190.604909647934</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>107.9720312369302</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>79.23215548632174</v>
       </c>
       <c r="X43" t="n">
-        <v>79.23215548632211</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>238.9073112864558</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>107.9720312369307</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.79471755090449</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>674453.454941818</v>
+        <v>672493.327986001</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>674453.454941818</v>
+        <v>672493.327986001</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>674453.454941818</v>
+        <v>672493.327986001</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443608.093982887</v>
+        <v>650809.0810110525</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443608.093982887</v>
+        <v>650809.0810110525</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660916.4303255964</v>
+        <v>660916.4303255962</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660916.4303255962</v>
+        <v>660916.4303255964</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>443608.093982887</v>
+        <v>650809.0810110525</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>443608.093982887</v>
+        <v>650809.0810110525</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26316,31 @@
         <v>364026.6675069773</v>
       </c>
       <c r="C2" t="n">
-        <v>364026.667506977</v>
+        <v>364026.6675069772</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.6675069769</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="E2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068673</v>
       </c>
       <c r="F2" t="n">
-        <v>235779.2447520151</v>
+        <v>345897.3934068673</v>
       </c>
       <c r="G2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="H2" t="n">
+        <v>351269.0019609046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>351269.0019609046</v>
+      </c>
+      <c r="J2" t="n">
         <v>351269.0019609047</v>
       </c>
-      <c r="I2" t="n">
-        <v>351269.0019609045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>351269.0019609045</v>
-      </c>
       <c r="K2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="L2" t="n">
         <v>351269.0019609046</v>
@@ -26347,13 +26349,13 @@
         <v>351269.0019609046</v>
       </c>
       <c r="N2" t="n">
-        <v>351269.0019609047</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="O2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068675</v>
       </c>
       <c r="P2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068672</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165612</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481228</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056398</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136841.7607842109</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="C4" t="n">
-        <v>136841.7607842109</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>136841.7607842109</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>19722.71048820159</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="F4" t="n">
-        <v>19722.71048820158</v>
+        <v>28980.67952111641</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26454,10 +26456,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>19722.71048820159</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="P4" t="n">
-        <v>19722.71048820159</v>
+        <v>28980.6795211164</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75910.94692747264</v>
+        <v>-46577.39275092339</v>
       </c>
       <c r="C6" t="n">
-        <v>152176.3568362111</v>
+        <v>139827.3406638137</v>
       </c>
       <c r="D6" t="n">
-        <v>152176.3568362109</v>
+        <v>139827.3406638136</v>
       </c>
       <c r="E6" t="n">
-        <v>174675.5843772586</v>
+        <v>33425.94816115721</v>
       </c>
       <c r="F6" t="n">
-        <v>174675.5843772585</v>
+        <v>240858.2357777184</v>
       </c>
       <c r="G6" t="n">
-        <v>80135.53190637739</v>
+        <v>236461.0306330822</v>
       </c>
       <c r="H6" t="n">
+        <v>244086.6527165634</v>
+      </c>
+      <c r="I6" t="n">
         <v>244086.6527165635</v>
       </c>
-      <c r="I6" t="n">
-        <v>244086.6527165633</v>
-      </c>
       <c r="J6" t="n">
-        <v>66009.72422778355</v>
+        <v>98552.98278174704</v>
       </c>
       <c r="K6" t="n">
-        <v>244086.6527165633</v>
+        <v>244086.6527165635</v>
       </c>
       <c r="L6" t="n">
-        <v>244086.6527165634</v>
+        <v>244086.6527165635</v>
       </c>
       <c r="M6" t="n">
-        <v>244086.6527165634</v>
+        <v>70956.1615109237</v>
       </c>
       <c r="N6" t="n">
         <v>244086.6527165635</v>
       </c>
       <c r="O6" t="n">
-        <v>174675.5843772586</v>
+        <v>240858.2357777185</v>
       </c>
       <c r="P6" t="n">
-        <v>174675.5843772586</v>
+        <v>240858.2357777184</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.7339978717828</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658547979</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717828</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717828</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658547979</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>219.3337216970551</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>5.882414251447511</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>86.88529518525151</v>
+        <v>47.1854451728324</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -27552,10 +27554,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>88.37640295400337</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>45.62260074021114</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>152.6457598502435</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>245.3945739651546</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>121.0755217890317</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>13.93182201540122</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>192.4160227002418</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>680.607728397287</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q3" t="n">
-        <v>375.3720962699657</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>653.1084262398208</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="P6" t="n">
-        <v>81.06623842027952</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>653.1084262398208</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>275.4581450699646</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>318.5846449871387</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>534.3646536318383</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7417458120015</v>
+        <v>928.4912652212505</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>81.47382575195293</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>653.1084262398208</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>677.5156591963801</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>982.4869477446711</v>
+        <v>1005.643165314145</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36367,7 +36369,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969938</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36376,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>385.2564605346091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36683,10 +36685,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>760.3041339439027</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>811.4841868477985</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37555,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906197</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,10 +37633,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>81.00692520345643</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>506.7576310804626</v>
+        <v>437.3284175951213</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>534.3646536318383</v>
+        <v>464.0513588372759</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,10 +38104,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>191.2998374487783</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1298605.766174998</v>
+        <v>1297887.776060139</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.683076072</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -673,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28.66548829251599</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -727,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>214.1177983390245</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>123.0673923170407</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>122.9177036806392</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>334.2553197328295</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -910,7 +910,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>22.55001707551775</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1056,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>123.0673923170403</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>177.2371487216782</v>
+        <v>51.29721097934932</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1387,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>221.465566047739</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1533,16 +1533,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429432</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1584,7 +1584,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>40.79871210679592</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.89949249262446</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1666,7 +1666,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>82.69558886826877</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>108.3150987014997</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2007,16 +2007,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>44.68628532417744</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E22" t="n">
-        <v>58.31517967031836</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2727,7 +2727,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2775,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>203.953684887366</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>180.0750960050902</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.69511841098215</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3505,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3559,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141.0788638521124</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3793,10 +3793,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>110.744284008883</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>102.0412378013739</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>192.8717243028904</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4030,13 +4030,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>245.9424894880823</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>121.2482518332236</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>562.9251824419335</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C2" t="n">
-        <v>136.0244524552336</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D2" t="n">
-        <v>116.772235680638</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E2" t="n">
-        <v>94.83569986889961</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F2" t="n">
-        <v>73.75192209870391</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G2" t="n">
-        <v>73.45326372855661</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>73.45326372855661</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>455.358312627159</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L2" t="n">
-        <v>1006.023847611597</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M2" t="n">
-        <v>1556.689382596035</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N2" t="n">
-        <v>2107.354917580473</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300179</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X2" t="n">
-        <v>580.0300086977652</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.7331426930596</v>
+        <v>584.6749752702793</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
         <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L3" t="n">
-        <v>866.8612493132766</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M3" t="n">
-        <v>866.8612493132766</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N3" t="n">
-        <v>866.8612493132766</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989117</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>144.2667933089716</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>144.2667933089716</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1943.199785070405</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754302</v>
+        <v>1668.347381242918</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212353</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109774</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2095.759537287837</v>
+        <v>1780.988227140365</v>
       </c>
       <c r="C5" t="n">
-        <v>1758.12790119407</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.83528037907</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>908.8583405269275</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4567,19 +4567,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893171</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
         <v>1218.160237973755</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.864363543668</v>
+        <v>2202.133457436601</v>
       </c>
       <c r="Y5" t="n">
-        <v>2111.567497538963</v>
+        <v>2200.836591431896</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>144.2667933089716</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>144.2667933089716</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2200.126831414696</v>
+        <v>158.88477840153</v>
       </c>
       <c r="C8" t="n">
-        <v>2021.099408463506</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>1597.806787648507</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.829847796364</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.934791665823</v>
+        <v>578.73314269306</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721397</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734697</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919697</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>728.1185992569547</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>323.7795368464033</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>415.4757434162575</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>1130.984051391757</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>2060.609099011033</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M11" t="n">
-        <v>3064.895200430092</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>4041.146258916793</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>4886.290909067605</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4886.290909067605</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589942</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890289</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058036</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012927</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5117,28 +5117,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
         <v>1908.7645754595</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.1560104286543</v>
+        <v>610.1682519312816</v>
       </c>
       <c r="C13" t="n">
-        <v>152.1834473075703</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0769448789901</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="E13" t="n">
-        <v>100.0769448789901</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0769448789901</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G13" t="n">
         <v>100.0769448789901</v>
@@ -5199,13 +5199,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498427</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724327</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1825.804756727258</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.08104783266</v>
+        <v>1544.093289335287</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051728</v>
+        <v>1269.2408855078</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509779</v>
+        <v>1026.676988953605</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407199</v>
+        <v>800.3342206433472</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2503.578858279949</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>2076.678128293249</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1653.385507478249</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1227.408567626107</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>802.2843858155068</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>397.9453234049553</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>180.7360323734235</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>896.2443403489226</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>896.2443403489226</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1900.530441767981</v>
+        <v>2608.809720925906</v>
       </c>
       <c r="N14" t="n">
-        <v>2876.781500254682</v>
+        <v>3585.060779412607</v>
       </c>
       <c r="O14" t="n">
-        <v>3721.926150405494</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563422</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4973.6457363812</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4752.720165425832</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4494.365256022244</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4136.875841148494</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3740.484491448841</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3328.764492616588</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2923.427222571479</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M15" t="n">
-        <v>1156.063482855035</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387142</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979292</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>2233.451358979292</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>2124.042168371716</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>1842.330700979745</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>787.7033607638042</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,19 +5503,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5524,28 +5524,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>823.7398882488801</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>651.7673251277961</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548329</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.20968432887</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>1240.248625271204</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>1013.905856960946</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>3105.626261478503</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5840,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>742.8905159778161</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C22" t="n">
-        <v>742.8905159778161</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D22" t="n">
-        <v>742.8905159778161</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886056</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5955,7 +5955,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.8905159778161</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6071,22 +6071,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6177,22 +6177,22 @@
         <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>2235.67712750613</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>2235.67712750613</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6308,13 +6308,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>612.3940204581199</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1271.466654034638</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1028.902757480444</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>802.5599891701856</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6481,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6545,19 +6545,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1557.543841010909</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6785,10 +6785,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
         <v>305.3113489363686</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2099.621208542961</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1819.436760043265</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.725292651294</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.872888823807</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7022,10 +7022,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.1370507523521</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E37" t="n">
         <v>274.1644876312681</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1941.958004048024</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U37" t="n">
-        <v>1661.773555548329</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V37" t="n">
-        <v>1380.062088156358</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.20968432887</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X37" t="n">
-        <v>862.6457877746757</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.3030194644177</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="38">
@@ -7183,28 +7183,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7262,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>374.0438447866366</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>202.0712816655526</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>202.0712816655526</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="E40" t="n">
-        <v>202.0712816655526</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7411,37 +7411,37 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>4570.892110530337</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
         <v>4529.262127278774</v>
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="M42" t="n">
-        <v>819.4496289866299</v>
+        <v>379.221077120493</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.7645754595</v>
+        <v>379.221077120493</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1183.258067403227</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.285504282143</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>847.9687314089136</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E43" t="n">
-        <v>681.7605255617672</v>
+        <v>203.1489022541153</v>
       </c>
       <c r="F43" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
         <v>1129.970990573657</v>
@@ -7587,34 +7587,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.150624518019</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>2037.150624518019</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>2037.150624518019</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>1842.330700979745</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>1599.766804425551</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.424036115293</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
         <v>1178.188711671385</v>
@@ -7657,31 +7657,31 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>4547.761764445324</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4547.761764445324</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>5003.847243949507</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.55437886728</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.199469463692</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
         <v>4171.772712405023</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400453</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917958</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.937242433243</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706181</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389085</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606689</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368999</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368999</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368999</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368999</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>3195.159613368999</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>3914.532297476637</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949507</v>
+        <v>989.5582228904617</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949507</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949507</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949507</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510762</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.64306080844</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728077</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867344</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700561</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467224</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820516</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3047.513282086044</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C46" t="n">
-        <v>2875.54071896496</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D46" t="n">
-        <v>2823.434216536379</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="E46" t="n">
-        <v>2823.434216536379</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="F46" t="n">
-        <v>2823.434216536379</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G46" t="n">
-        <v>2823.434216536379</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H46" t="n">
-        <v>2823.434216536379</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536379</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760537</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966374</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260795</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231046</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107081</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786845</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708745</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949507</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.80863063668</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155815</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381715</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U46" t="n">
-        <v>4263.14978688202</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V46" t="n">
-        <v>3981.438319490049</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W46" t="n">
-        <v>3706.585915662562</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X46" t="n">
-        <v>3464.022019108367</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y46" t="n">
-        <v>3237.679250798109</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>450.7747902674471</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298236</v>
+        <v>379.7269667620467</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>463.2315577343865</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>110.3411813754879</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>463.2315577343861</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
@@ -8461,19 +8461,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>204.7674648980005</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>543.1036942593831</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>181.0208015487716</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>348.0046044727252</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>767.069374108112</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,10 +8707,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,16 +8780,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>949.8342934347921</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814831</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>110.8937852375394</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>543.487789803719</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,7 +8944,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814831</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1043.074428213577</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>855.4509062314398</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>280.2044936766268</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9737,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,7 +9965,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>185.1977413813447</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10193,22 +10193,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.3243076206841</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10433,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O33" t="n">
         <v>921.6378271075471</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10831,19 +10831,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>723.1315272622212</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10910,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11077,7 +11077,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>474.9037794053526</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11147,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980063</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
-        <v>501.4423181933</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>73.42412869296655</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402027</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>236.5838919079029</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>73.42412869296653</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>78.98801627622822</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>169.067505313199</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>116.9973198203195</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23940,13 +23940,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E22" t="n">
-        <v>106.2309441183566</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>111.8076272173316</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>68.15019490184613</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>60.06316158356276</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>109.9884867335148</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>114.6701458615095</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.18544517283263</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>65.23940003763306</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25569,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>107.9720312369302</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>68.10191868181127</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>79.23215548632174</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>107.9720312369307</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>48.8949046499616</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26043,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>650809.0810110525</v>
+        <v>650809.081011052</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650809.0810110525</v>
+        <v>650809.0810110521</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660916.4303255964</v>
+        <v>660916.4303255962</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>650809.0810110525</v>
+        <v>650809.0810110521</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>650809.0810110525</v>
+        <v>650809.0810110521</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364026.6675069773</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="C2" t="n">
-        <v>364026.6675069772</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="D2" t="n">
         <v>364026.6675069771</v>
       </c>
       <c r="E2" t="n">
-        <v>345897.3934068673</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="F2" t="n">
         <v>345897.3934068673</v>
@@ -26331,16 +26331,16 @@
         <v>351269.0019609046</v>
       </c>
       <c r="H2" t="n">
+        <v>351269.0019609045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>351269.0019609047</v>
+      </c>
+      <c r="J2" t="n">
         <v>351269.0019609046</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>351269.0019609046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>351269.0019609047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>351269.0019609047</v>
       </c>
       <c r="L2" t="n">
         <v>351269.0019609046</v>
@@ -26352,10 +26352,10 @@
         <v>351269.0019609046</v>
       </c>
       <c r="O2" t="n">
-        <v>345897.3934068675</v>
+        <v>345897.3934068671</v>
       </c>
       <c r="P2" t="n">
-        <v>345897.3934068672</v>
+        <v>345897.3934068673</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165612</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481228</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056398</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>28980.6795211164</v>
       </c>
       <c r="F4" t="n">
-        <v>28980.67952111641</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26450,16 +26450,16 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>28980.6795211164</v>
+        <v>28980.67952111639</v>
       </c>
       <c r="P4" t="n">
-        <v>28980.6795211164</v>
+        <v>28980.67952111639</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,40 +26478,40 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46577.39275092339</v>
+        <v>-46577.39275092367</v>
       </c>
       <c r="C6" t="n">
-        <v>139827.3406638137</v>
+        <v>139827.3406638136</v>
       </c>
       <c r="D6" t="n">
         <v>139827.3406638136</v>
       </c>
       <c r="E6" t="n">
-        <v>33425.94816115721</v>
+        <v>33353.43106475699</v>
       </c>
       <c r="F6" t="n">
-        <v>240858.2357777184</v>
+        <v>240785.718681318</v>
       </c>
       <c r="G6" t="n">
-        <v>236461.0306330822</v>
+        <v>236409.9999708977</v>
       </c>
       <c r="H6" t="n">
-        <v>244086.6527165634</v>
+        <v>244035.622054379</v>
       </c>
       <c r="I6" t="n">
-        <v>244086.6527165635</v>
+        <v>244035.6220543792</v>
       </c>
       <c r="J6" t="n">
-        <v>98552.98278174704</v>
+        <v>98501.95211956264</v>
       </c>
       <c r="K6" t="n">
-        <v>244086.6527165635</v>
+        <v>244035.6220543791</v>
       </c>
       <c r="L6" t="n">
-        <v>244086.6527165635</v>
+        <v>244035.6220543791</v>
       </c>
       <c r="M6" t="n">
-        <v>70956.1615109237</v>
+        <v>70905.1308487396</v>
       </c>
       <c r="N6" t="n">
-        <v>244086.6527165635</v>
+        <v>244035.6220543791</v>
       </c>
       <c r="O6" t="n">
-        <v>240858.2357777185</v>
+        <v>240785.7186813178</v>
       </c>
       <c r="P6" t="n">
-        <v>240858.2357777184</v>
+        <v>240785.718681318</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717828</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658547979</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717828</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717828</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658547979</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>5.882414251447511</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>187.166099005634</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>47.1854451728324</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.2205539080137</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>88.37640295400337</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27681,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>385.0527817684124</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>371.3345117074836</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>245.3945739651546</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27906,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>415.0101894726378</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>556.227813115594</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>73.0615585410419</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
@@ -35181,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>73.0615585410419</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>167.4878420635545</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.2737632597931</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>318.5846449871387</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>729.6381112086802</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,10 +35427,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>928.4912652212505</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>81.47382575195293</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>506.0565269042872</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,7 +35664,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1005.643165314145</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>818.1712833969938</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104528</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37153,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>205.0592278086264</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>898.4659373853249</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37551,19 +37551,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>685.740567906197</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37797,7 +37797,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>437.3284175951213</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>269.8797922757841</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
-        <v>464.0513588372759</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
